--- a/testdata/testScriptData.xlsx
+++ b/testdata/testScriptData.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11640" windowHeight="6045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11640" windowHeight="6045" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="org" sheetId="1" r:id="rId1"/>
-    <sheet name="contact" sheetId="6" r:id="rId2"/>
-    <sheet name="createOrg" sheetId="4" r:id="rId3"/>
-    <sheet name="expectedCond" sheetId="3" r:id="rId4"/>
-    <sheet name="create" sheetId="2" r:id="rId5"/>
-    <sheet name="multiData" sheetId="5" r:id="rId6"/>
+    <sheet name="product" sheetId="7" r:id="rId2"/>
+    <sheet name="contact" sheetId="6" r:id="rId3"/>
+    <sheet name="createOrg" sheetId="4" r:id="rId4"/>
+    <sheet name="expectedCond" sheetId="3" r:id="rId5"/>
+    <sheet name="create" sheetId="2" r:id="rId6"/>
+    <sheet name="multiData" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="98">
   <si>
     <t>TC_ID</t>
   </si>
@@ -300,6 +301,24 @@
   </si>
   <si>
     <t>Organization Name</t>
+  </si>
+  <si>
+    <t>iphone</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 (128GB) - Green</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 (128 GB) - Blue</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 (128 GB) - Black</t>
+  </si>
+  <si>
+    <t>brandName</t>
+  </si>
+  <si>
+    <t>prodName</t>
   </si>
 </sst>
 </file>
@@ -644,7 +663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -807,6 +826,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -943,7 +1013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -999,7 +1069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -1123,7 +1193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1"/>
   <sheetViews>
@@ -1221,7 +1291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
